--- a/team_specific_matrix/Austin Peay_B.xlsx
+++ b/team_specific_matrix/Austin Peay_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1934156378600823</v>
+        <v>0.1993243243243243</v>
       </c>
       <c r="C2">
-        <v>0.5679012345679012</v>
+        <v>0.5641891891891891</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02880658436213992</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1069958847736626</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.102880658436214</v>
+        <v>0.1013513513513514</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007142857142857143</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C3">
-        <v>0.02857142857142857</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04285714285714286</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7642857142857142</v>
+        <v>0.7485380116959064</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1571428571428571</v>
+        <v>0.1695906432748538</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2647058823529412</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03636363636363636</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006060606060606061</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02424242424242424</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2484848484848485</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01212121212121212</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1939393939393939</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="R6">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S6">
-        <v>0.3878787878787879</v>
+        <v>0.3671497584541063</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0703125</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0234375</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15625</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.015625</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1796875</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="R7">
-        <v>0.0859375</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="S7">
-        <v>0.40625</v>
+        <v>0.3935483870967742</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08732394366197183</v>
+        <v>0.08644859813084112</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02253521126760564</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06197183098591549</v>
+        <v>0.0630841121495327</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.123943661971831</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005633802816901409</v>
+        <v>0.007009345794392523</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1802816901408451</v>
+        <v>0.1799065420560748</v>
       </c>
       <c r="R8">
-        <v>0.08450704225352113</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="S8">
-        <v>0.4338028169014084</v>
+        <v>0.4345794392523364</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1085714285714286</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01142857142857143</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E9">
-        <v>0.005714285714285714</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F9">
-        <v>0.05142857142857143</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09714285714285714</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2114285714285714</v>
+        <v>0.2081447963800905</v>
       </c>
       <c r="R9">
-        <v>0.08</v>
+        <v>0.07239819004524888</v>
       </c>
       <c r="S9">
-        <v>0.4342857142857143</v>
+        <v>0.4660633484162896</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1373569198751301</v>
+        <v>0.1338983050847458</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0218522372528616</v>
+        <v>0.02372881355932203</v>
       </c>
       <c r="E10">
-        <v>0.001040582726326743</v>
+        <v>0.000847457627118644</v>
       </c>
       <c r="F10">
-        <v>0.06763787721123829</v>
+        <v>0.06694915254237288</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1259105098855359</v>
+        <v>0.1211864406779661</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01144640998959417</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2299687825182102</v>
+        <v>0.2245762711864407</v>
       </c>
       <c r="R10">
-        <v>0.06867845993756504</v>
+        <v>0.06864406779661017</v>
       </c>
       <c r="S10">
-        <v>0.336108220603538</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1643192488262911</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1126760563380282</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="K11">
-        <v>0.2347417840375587</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L11">
-        <v>0.4647887323943662</v>
+        <v>0.4734848484848485</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02347417840375587</v>
+        <v>0.01893939393939394</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7115384615384616</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2115384615384615</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03846153846153846</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03846153846153846</v>
+        <v>0.03076923076923077</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0189873417721519</v>
+        <v>0.015625</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1772151898734177</v>
+        <v>0.1822916666666667</v>
       </c>
       <c r="I15">
-        <v>0.1139240506329114</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3481012658227848</v>
+        <v>0.375</v>
       </c>
       <c r="K15">
-        <v>0.06962025316455696</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006329113924050633</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06962025316455696</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1962025316455696</v>
+        <v>0.1822916666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006622516556291391</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1721854304635762</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="I16">
-        <v>0.08609271523178808</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="J16">
-        <v>0.3509933774834437</v>
+        <v>0.3532608695652174</v>
       </c>
       <c r="K16">
-        <v>0.1059602649006623</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04635761589403974</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05960264900662252</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1721854304635762</v>
+        <v>0.1684782608695652</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01591511936339523</v>
+        <v>0.01318681318681319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1856763925729443</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="I17">
-        <v>0.1087533156498674</v>
+        <v>0.1186813186813187</v>
       </c>
       <c r="J17">
-        <v>0.3978779840848806</v>
+        <v>0.3802197802197802</v>
       </c>
       <c r="K17">
-        <v>0.06631299734748011</v>
+        <v>0.07032967032967033</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02122015915119363</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="N17">
-        <v>0.002652519893899204</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O17">
-        <v>0.07427055702917772</v>
+        <v>0.07252747252747253</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1273209549071618</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01492537313432836</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1567164179104478</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="I18">
-        <v>0.1268656716417911</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="J18">
-        <v>0.3955223880597015</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K18">
-        <v>0.08208955223880597</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01492537313432836</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08208955223880597</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1268656716417911</v>
+        <v>0.1296296296296296</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02076843198338526</v>
+        <v>0.02175732217573222</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2201453790238837</v>
+        <v>0.2150627615062762</v>
       </c>
       <c r="I19">
-        <v>0.08826583592938733</v>
+        <v>0.09205020920502092</v>
       </c>
       <c r="J19">
-        <v>0.3603322949117342</v>
+        <v>0.3665271966527197</v>
       </c>
       <c r="K19">
-        <v>0.09968847352024922</v>
+        <v>0.09790794979079498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02076843198338526</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="N19">
-        <v>0.002076843198338525</v>
+        <v>0.001673640167364017</v>
       </c>
       <c r="O19">
-        <v>0.06645898234683281</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1214953271028037</v>
+        <v>0.1171548117154812</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Austin Peay_B.xlsx
+++ b/team_specific_matrix/Austin Peay_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1993243243243243</v>
+        <v>0.1907692307692308</v>
       </c>
       <c r="C2">
-        <v>0.5641891891891891</v>
+        <v>0.5753846153846154</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02702702702702703</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1081081081081081</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1013513513513514</v>
+        <v>0.09538461538461539</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01169590643274854</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C3">
-        <v>0.02923976608187134</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04093567251461988</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7485380116959064</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1695906432748538</v>
+        <v>0.1684210526315789</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6595744680851063</v>
+        <v>0.64</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2978723404255319</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03864734299516908</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00966183574879227</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03864734299516908</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2608695652173913</v>
+        <v>0.2640692640692641</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00966183574879227</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1884057971014493</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.08695652173913043</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S6">
-        <v>0.3671497584541063</v>
+        <v>0.3722943722943723</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09032258064516129</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02580645161290323</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07096774193548387</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1419354838709677</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01290322580645161</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1741935483870968</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="R7">
-        <v>0.09032258064516129</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="S7">
-        <v>0.3935483870967742</v>
+        <v>0.3825136612021858</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08644859813084112</v>
+        <v>0.08523908523908524</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02803738317757009</v>
+        <v>0.02494802494802495</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0630841121495327</v>
+        <v>0.06444906444906445</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1214953271028037</v>
+        <v>0.1185031185031185</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007009345794392523</v>
+        <v>0.006237006237006237</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1799065420560748</v>
+        <v>0.185031185031185</v>
       </c>
       <c r="R8">
-        <v>0.07943925233644859</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="S8">
-        <v>0.4345794392523364</v>
+        <v>0.4345114345114345</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09049773755656108</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009049773755656109</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="E9">
-        <v>0.004524886877828055</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="F9">
-        <v>0.04524886877828054</v>
+        <v>0.04453441295546558</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09954751131221719</v>
+        <v>0.09716599190283401</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004524886877828055</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2081447963800905</v>
+        <v>0.2186234817813765</v>
       </c>
       <c r="R9">
-        <v>0.07239819004524888</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S9">
-        <v>0.4660633484162896</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1338983050847458</v>
+        <v>0.1324655436447167</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02372881355932203</v>
+        <v>0.02373660030627871</v>
       </c>
       <c r="E10">
-        <v>0.000847457627118644</v>
+        <v>0.001531393568147014</v>
       </c>
       <c r="F10">
-        <v>0.06694915254237288</v>
+        <v>0.06814701378254211</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1211864406779661</v>
+        <v>0.1202143950995406</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01016949152542373</v>
+        <v>0.009188361408882083</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2245762711864407</v>
+        <v>0.2297090352220521</v>
       </c>
       <c r="R10">
-        <v>0.06864406779661017</v>
+        <v>0.06967840735068913</v>
       </c>
       <c r="S10">
-        <v>0.35</v>
+        <v>0.3453292496171516</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1515151515151515</v>
+        <v>0.1528239202657807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1287878787878788</v>
+        <v>0.1229235880398671</v>
       </c>
       <c r="K11">
-        <v>0.2272727272727273</v>
+        <v>0.2292358803986711</v>
       </c>
       <c r="L11">
-        <v>0.4734848484848485</v>
+        <v>0.478405315614618</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01893939393939394</v>
+        <v>0.01661129568106312</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7153846153846154</v>
+        <v>0.7302631578947368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2076923076923077</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04615384615384616</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03076923076923077</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6818181818181818</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.015625</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1822916666666667</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="I15">
-        <v>0.1041666666666667</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3719806763285024</v>
       </c>
       <c r="K15">
-        <v>0.06770833333333333</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01041666666666667</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0625</v>
+        <v>0.06280193236714976</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1822916666666667</v>
+        <v>0.1739130434782609</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01630434782608696</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1630434782608696</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="I16">
-        <v>0.09239130434782608</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="J16">
-        <v>0.3532608695652174</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="K16">
-        <v>0.1141304347826087</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03804347826086957</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05434782608695652</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1684782608695652</v>
+        <v>0.1717171717171717</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01318681318681319</v>
+        <v>0.01343570057581574</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1846153846153846</v>
+        <v>0.1938579654510557</v>
       </c>
       <c r="I17">
-        <v>0.1186813186813187</v>
+        <v>0.1132437619961612</v>
       </c>
       <c r="J17">
-        <v>0.3802197802197802</v>
+        <v>0.3838771593090211</v>
       </c>
       <c r="K17">
-        <v>0.07032967032967033</v>
+        <v>0.07293666026871401</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01978021978021978</v>
+        <v>0.02111324376199616</v>
       </c>
       <c r="N17">
-        <v>0.002197802197802198</v>
+        <v>0.003838771593090211</v>
       </c>
       <c r="O17">
-        <v>0.07252747252747253</v>
+        <v>0.0671785028790787</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1384615384615385</v>
+        <v>0.1305182341650672</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01234567901234568</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.154320987654321</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I18">
-        <v>0.1172839506172839</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="J18">
-        <v>0.3888888888888889</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="K18">
-        <v>0.08641975308641975</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01851851851851852</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09259259259259259</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1296296296296296</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02175732217573222</v>
+        <v>0.02190332326283988</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2150627615062762</v>
+        <v>0.2122356495468278</v>
       </c>
       <c r="I19">
-        <v>0.09205020920502092</v>
+        <v>0.09516616314199396</v>
       </c>
       <c r="J19">
-        <v>0.3665271966527197</v>
+        <v>0.3595166163141994</v>
       </c>
       <c r="K19">
-        <v>0.09790794979079498</v>
+        <v>0.1012084592145015</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02092050209205021</v>
+        <v>0.02190332326283988</v>
       </c>
       <c r="N19">
-        <v>0.001673640167364017</v>
+        <v>0.001510574018126888</v>
       </c>
       <c r="O19">
-        <v>0.06694560669456066</v>
+        <v>0.06570996978851963</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1171548117154812</v>
+        <v>0.1208459214501511</v>
       </c>
     </row>
   </sheetData>
